--- a/bar.xlsx
+++ b/bar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c51f015d93029958/Desktop/Class Materials/dataaggregator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_61F3AD472364FF98787E06B3E754B9BDB0A026B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64235137-21FB-42BF-8C47-FC223F3AD323}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_61F3AD472364FF98787E06B3E754B9BDB0A026B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52FC6149-EDD4-4315-AD35-90FABCD62019}"/>
   <bookViews>
     <workbookView xWindow="29025" yWindow="1200" windowWidth="23310" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">The staff were very upbeat, smiles and friendly. The 150 flavors of soda was a </t>
-  </si>
-  <si>
-    <t>pleasant feature! They nailed my order for an extra sauce.</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,6 +71,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,28 +399,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:A2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>